--- a/Data/DatasetTable.xlsx
+++ b/Data/DatasetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yutaro\Documents\RShiny_Microclim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameyer/RShiny_Microclim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15DD0CD-DCB1-406D-A04A-0CB4F47D7970}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A142DF-5C44-554C-9E99-A668BA704B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetTable" sheetId="1" r:id="rId1"/>
@@ -989,16 +989,16 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
@@ -1365,10 +1365,10 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>

--- a/Data/DatasetTable.xlsx
+++ b/Data/DatasetTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameyer/RShiny_Microclim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A142DF-5C44-554C-9E99-A668BA704B78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286000BC-4F58-514F-9B61-FDB60C392CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
   <si>
     <t>Dataset</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>Sub-hourly, Hourly, Daily</t>
+  </si>
+  <si>
+    <t>NCEP</t>
+  </si>
+  <si>
+    <t>6-hourly</t>
+  </si>
+  <si>
+    <t>10' x 10'</t>
+  </si>
+  <si>
+    <t>NEW01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5° x 2.5° </t>
+  </si>
+  <si>
+    <t>Monthly</t>
   </si>
 </sst>
 </file>
@@ -986,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1503,6 +1521,100 @@
         <v>17</v>
       </c>
     </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>1948</v>
+      </c>
+      <c r="C12">
+        <v>2021</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>1961</v>
+      </c>
+      <c r="C13">
+        <v>1990</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" t="s">
+        <v>18</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/DatasetTable.xlsx
+++ b/Data/DatasetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameyer/RShiny_Microclim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286000BC-4F58-514F-9B61-FDB60C392CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264E2AC9-6FFB-7C4D-81E9-5CCA64112BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1429,49 +1429,49 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B10">
-        <v>2003</v>
+        <v>1948</v>
       </c>
       <c r="C10">
         <v>2021</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1523,49 +1523,49 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>1948</v>
+        <v>2003</v>
       </c>
       <c r="C12">
         <v>2021</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">

--- a/Data/DatasetTable.xlsx
+++ b/Data/DatasetTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameyer/RShiny_Microclim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264E2AC9-6FFB-7C4D-81E9-5CCA64112BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EA2CF5-9E13-2F47-A379-411F0FF0BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Data/DatasetTable.xlsx
+++ b/Data/DatasetTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ameyer/RShiny_Microclim/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6EA2CF5-9E13-2F47-A379-411F0FF0BF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF14E7A-579A-9649-BBBE-3BDEAA14F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatasetTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
   <si>
     <t>Dataset</t>
   </si>
@@ -97,21 +97,12 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>NOAA_NCDC</t>
-  </si>
-  <si>
     <t>microclimUS</t>
   </si>
   <si>
     <t>microclim</t>
   </si>
   <si>
-    <t>SNODAS</t>
-  </si>
-  <si>
-    <t>NicheMapR</t>
-  </si>
-  <si>
     <t>SpatRes</t>
   </si>
   <si>
@@ -128,12 +119,6 @@
   </si>
   <si>
     <t>0.17° x 0.17°</t>
-  </si>
-  <si>
-    <t>0.01° x 0.01°</t>
-  </si>
-  <si>
-    <t>30m?</t>
   </si>
   <si>
     <t>One day each month</t>
@@ -1004,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -1080,7 +1065,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -1112,7 +1097,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3">
         <v>2000</v>
@@ -1121,13 +1106,13 @@
         <v>2021</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -1159,31 +1144,37 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>1981</v>
+      </c>
+      <c r="C4">
+        <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>17</v>
@@ -1200,22 +1191,22 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B5">
-        <v>1981</v>
+        <v>2000</v>
       </c>
       <c r="C5">
         <v>2021</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -1236,10 +1227,10 @@
         <v>17</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O5" t="s">
         <v>17</v>
@@ -1247,31 +1238,31 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6">
-        <v>2000</v>
+        <v>1979</v>
       </c>
       <c r="C6">
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>17</v>
@@ -1283,30 +1274,24 @@
         <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7">
-        <v>1979</v>
-      </c>
-      <c r="C7">
-        <v>2021</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>39</v>
@@ -1321,7 +1306,7 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>17</v>
@@ -1330,7 +1315,7 @@
         <v>17</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N7" t="s">
         <v>18</v>
@@ -1341,22 +1326,22 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B8">
-        <v>1979</v>
+        <v>1948</v>
       </c>
       <c r="C8">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1374,30 +1359,36 @@
         <v>17</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N8" t="s">
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>1979</v>
+      </c>
+      <c r="C9">
+        <v>2017</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1421,30 +1412,24 @@
         <v>17</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10">
-        <v>1948</v>
-      </c>
-      <c r="C10">
-        <v>2021</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -1462,156 +1447,15 @@
         <v>17</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>1957</v>
-      </c>
-      <c r="C11">
-        <v>2021</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>18</v>
-      </c>
-      <c r="O11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12">
-        <v>2003</v>
-      </c>
-      <c r="C12">
-        <v>2021</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>1961</v>
-      </c>
-      <c r="C13">
-        <v>1990</v>
-      </c>
-      <c r="D13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="L13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" t="s">
-        <v>18</v>
-      </c>
-      <c r="O13" t="s">
         <v>18</v>
       </c>
     </row>
